--- a/data/trans_orig/P14B06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B06-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D406E76-6179-4645-B609-88FD7091757E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0234EDD6-F00A-4F2A-AE7A-2545841E724A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5D54E05-280F-4B24-8E46-4B36DD2354BC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B89A65EB-C354-4616-A9BA-295F1E54DDE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -84,117 +84,111 @@
     <t>73,2%</t>
   </si>
   <si>
-    <t>37,23%</t>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
   </si>
   <si>
     <t>91,57%</t>
   </si>
   <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
     <t>Huelva</t>
   </si>
   <si>
@@ -237,7 +231,7 @@
     <t>34,51%</t>
   </si>
   <si>
-    <t>82,94%</t>
+    <t>83,2%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -246,7 +240,7 @@
     <t>65,49%</t>
   </si>
   <si>
-    <t>17,06%</t>
+    <t>16,8%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -264,7 +258,7 @@
     <t>9,52%</t>
   </si>
   <si>
-    <t>47,68%</t>
+    <t>45,41%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -279,7 +273,7 @@
     <t>90,48%</t>
   </si>
   <si>
-    <t>52,32%</t>
+    <t>54,59%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -288,103 +282,103 @@
     <t>22,28%</t>
   </si>
   <si>
-    <t>62,37%</t>
+    <t>61,71%</t>
   </si>
   <si>
     <t>40,15%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
   </si>
   <si>
     <t>77,72%</t>
   </si>
   <si>
-    <t>37,63%</t>
+    <t>38,29%</t>
   </si>
   <si>
     <t>59,85%</t>
   </si>
   <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>68,37%</t>
   </si>
   <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>30,19%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>39,6%</t>
   </si>
   <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
   </si>
   <si>
     <t>69,81%</t>
   </si>
   <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>60,4%</t>
   </si>
   <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -402,7 +396,7 @@
     <t>15,94%</t>
   </si>
   <si>
-    <t>75,34%</t>
+    <t>71,65%</t>
   </si>
   <si>
     <t>19,35%</t>
@@ -414,13 +408,13 @@
     <t>17,6%</t>
   </si>
   <si>
-    <t>55,01%</t>
+    <t>56,76%</t>
   </si>
   <si>
     <t>84,06%</t>
   </si>
   <si>
-    <t>24,66%</t>
+    <t>28,35%</t>
   </si>
   <si>
     <t>80,65%</t>
@@ -432,7 +426,7 @@
     <t>82,4%</t>
   </si>
   <si>
-    <t>44,99%</t>
+    <t>43,24%</t>
   </si>
   <si>
     <t>34,17%</t>
@@ -441,7 +435,7 @@
     <t>21,58%</t>
   </si>
   <si>
-    <t>76,09%</t>
+    <t>96,8%</t>
   </si>
   <si>
     <t>65,83%</t>
@@ -450,7 +444,7 @@
     <t>78,42%</t>
   </si>
   <si>
-    <t>23,91%</t>
+    <t>3,2%</t>
   </si>
   <si>
     <t>50,02%</t>
@@ -486,109 +480,115 @@
     <t>29,81%</t>
   </si>
   <si>
-    <t>76,32%</t>
+    <t>66,67%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>50,64%</t>
+    <t>51,76%</t>
   </si>
   <si>
     <t>70,19%</t>
   </si>
   <si>
-    <t>23,68%</t>
+    <t>33,33%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>49,36%</t>
+    <t>48,24%</t>
   </si>
   <si>
     <t>42,48%</t>
   </si>
   <si>
-    <t>83,88%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
   </si>
   <si>
     <t>57,52%</t>
   </si>
   <si>
-    <t>16,12%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A409588-D249-4BEB-8639-BFCE83651162}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895CAE33-EC00-43AD-B5AB-67041410E1F3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1583,10 +1583,10 @@
         <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1595,13 +1595,13 @@
         <v>3310</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,7 +1619,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>32</v>
@@ -1631,13 +1631,13 @@
         <v>7042</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -1646,13 +1646,13 @@
         <v>8952</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,7 +1708,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1720,13 +1720,13 @@
         <v>1101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>37</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1750,13 +1750,13 @@
         <v>1101</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,10 +1771,10 @@
         <v>4282</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1789,7 +1789,7 @@
         <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>32</v>
@@ -1801,10 +1801,10 @@
         <v>5336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1881,7 +1881,7 @@
         <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1893,7 +1893,7 @@
         <v>19</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>32</v>
@@ -1905,13 +1905,13 @@
         <v>2066</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,7 +1929,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>32</v>
@@ -1956,10 +1956,10 @@
         <v>3919</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2036,7 +2036,7 @@
         <v>37</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2045,13 +2045,13 @@
         <v>1162</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2060,13 +2060,13 @@
         <v>1162</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>32</v>
@@ -2096,10 +2096,10 @@
         <v>5100</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -2111,10 +2111,10 @@
         <v>11053</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2185,13 +2185,13 @@
         <v>2216</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2200,13 +2200,13 @@
         <v>4386</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2215,13 +2215,13 @@
         <v>6602</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,10 +2236,10 @@
         <v>7732</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -2251,13 +2251,13 @@
         <v>6540</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -2266,13 +2266,13 @@
         <v>14271</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2340,13 @@
         <v>11605</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -2355,13 +2355,13 @@
         <v>20297</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M28" s="7">
         <v>29</v>
@@ -2370,13 +2370,13 @@
         <v>31902</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2391,13 @@
         <v>26832</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -2406,13 +2406,13 @@
         <v>21817</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -2421,13 +2421,13 @@
         <v>48649</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2483,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2507,7 +2507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BF1CB0-1780-4C21-9FE8-D1EDDA20DAED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9BA3F2-9107-47D6-80B2-A7A1EEB8E6F6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2524,7 +2524,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2637,7 +2637,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2649,7 +2649,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>32</v>
@@ -2661,7 +2661,7 @@
         <v>2213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>27</v>
@@ -2685,7 +2685,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>32</v>
@@ -2712,7 +2712,7 @@
         <v>930</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>27</v>
@@ -2786,13 +2786,13 @@
         <v>865</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2801,13 +2801,13 @@
         <v>996</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2816,13 +2816,13 @@
         <v>1861</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,10 +2837,10 @@
         <v>4558</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2852,10 +2852,10 @@
         <v>4152</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2867,10 +2867,10 @@
         <v>8711</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3006,7 +3006,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>32</v>
@@ -3021,7 +3021,7 @@
         <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>32</v>
@@ -3096,7 +3096,7 @@
         <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>1033</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>27</v>
@@ -3120,13 +3120,13 @@
         <v>1033</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3144,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>32</v>
@@ -3156,7 +3156,7 @@
         <v>1991</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>27</v>
@@ -3171,10 +3171,10 @@
         <v>3755</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3248,7 +3248,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>32</v>
@@ -3260,7 +3260,7 @@
         <v>981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>27</v>
@@ -3275,7 +3275,7 @@
         <v>2047</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>27</v>
@@ -3302,7 +3302,7 @@
         <v>37</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3311,7 +3311,7 @@
         <v>981</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>27</v>
@@ -3326,7 +3326,7 @@
         <v>981</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>27</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3403,7 +3403,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>32</v>
@@ -3415,7 +3415,7 @@
         <v>2519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>27</v>
@@ -3430,10 +3430,10 @@
         <v>3326</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>19</v>
@@ -3457,7 +3457,7 @@
         <v>37</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3466,7 +3466,7 @@
         <v>1866</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>27</v>
@@ -3481,13 +3481,13 @@
         <v>1866</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,7 +3543,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3561,7 +3561,7 @@
         <v>37</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3570,13 +3570,13 @@
         <v>2202</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3585,13 +3585,13 @@
         <v>2202</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,7 +3609,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>32</v>
@@ -3621,10 +3621,10 @@
         <v>5184</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -3636,10 +3636,10 @@
         <v>9308</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3716,7 +3716,7 @@
         <v>37</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3725,13 +3725,13 @@
         <v>3490</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3740,13 +3740,13 @@
         <v>3490</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,7 +3764,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>32</v>
@@ -3776,13 +3776,13 @@
         <v>4727</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B06-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0234EDD6-F00A-4F2A-AE7A-2545841E724A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39FAFD3B-8EA1-49C7-82F3-673C83791604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B89A65EB-C354-4616-A9BA-295F1E54DDE5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E1AC012-FB9E-4233-8F73-A5ED89E250FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="182">
   <si>
     <t>Población cuya úlcera de estómago le limita en 2012 (Tasa respuesta: 1,14%)</t>
   </si>
@@ -84,16 +84,16 @@
     <t>73,2%</t>
   </si>
   <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>43,82%</t>
+    <t>43,91%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -102,19 +102,19 @@
     <t>79,38%</t>
   </si>
   <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>26,8%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
   </si>
   <si>
     <t>12,18%</t>
@@ -123,16 +123,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>56,18%</t>
+    <t>56,09%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -159,16 +159,16 @@
     <t>31,97%</t>
   </si>
   <si>
-    <t>67,52%</t>
+    <t>66,58%</t>
   </si>
   <si>
     <t>26,99%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -177,16 +177,16 @@
     <t>68,03%</t>
   </si>
   <si>
-    <t>32,48%</t>
+    <t>33,42%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -195,7 +195,7 @@
     <t>20,44%</t>
   </si>
   <si>
-    <t>80,0%</t>
+    <t>79,19%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -204,13 +204,13 @@
     <t>17,1%</t>
   </si>
   <si>
-    <t>67,8%</t>
+    <t>67,15%</t>
   </si>
   <si>
     <t>79,56%</t>
   </si>
   <si>
-    <t>20,0%</t>
+    <t>20,81%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -219,7 +219,7 @@
     <t>82,9%</t>
   </si>
   <si>
-    <t>32,2%</t>
+    <t>32,85%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -231,7 +231,7 @@
     <t>34,51%</t>
   </si>
   <si>
-    <t>83,2%</t>
+    <t>83,37%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -240,7 +240,7 @@
     <t>65,49%</t>
   </si>
   <si>
-    <t>16,8%</t>
+    <t>16,63%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -252,13 +252,13 @@
     <t>18,56%</t>
   </si>
   <si>
-    <t>68,51%</t>
+    <t>70,51%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>45,41%</t>
+    <t>46,97%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -267,13 +267,13 @@
     <t>81,44%</t>
   </si>
   <si>
-    <t>31,49%</t>
+    <t>29,49%</t>
   </si>
   <si>
     <t>90,48%</t>
   </si>
   <si>
-    <t>54,59%</t>
+    <t>53,03%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -282,109 +282,103 @@
     <t>22,28%</t>
   </si>
   <si>
-    <t>61,71%</t>
+    <t>62,67%</t>
   </si>
   <si>
     <t>40,15%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
   </si>
   <si>
     <t>77,72%</t>
   </si>
   <si>
-    <t>38,29%</t>
+    <t>37,33%</t>
   </si>
   <si>
     <t>59,85%</t>
   </si>
   <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>68,37%</t>
   </si>
   <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>30,19%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>64,3%</t>
   </si>
   <si>
     <t>39,6%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>69,81%</t>
   </si>
   <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
   </si>
   <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
+    <t>35,7%</t>
   </si>
   <si>
     <t>60,4%</t>
   </si>
   <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya úlcera de estómago le limita en 2015 (Tasa respuesta: 0,69%)</t>
+    <t>Población cuya úlcera de estómago le limita en 2016 (Tasa respuesta: 0,69%)</t>
   </si>
   <si>
     <t>70,4%</t>
@@ -402,13 +396,13 @@
     <t>19,35%</t>
   </si>
   <si>
-    <t>80,18%</t>
+    <t>79,65%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>56,76%</t>
+    <t>46,9%</t>
   </si>
   <si>
     <t>84,06%</t>
@@ -420,13 +414,13 @@
     <t>80,65%</t>
   </si>
   <si>
-    <t>19,82%</t>
+    <t>20,35%</t>
   </si>
   <si>
     <t>82,4%</t>
   </si>
   <si>
-    <t>43,24%</t>
+    <t>53,1%</t>
   </si>
   <si>
     <t>34,17%</t>
@@ -435,7 +429,7 @@
     <t>21,58%</t>
   </si>
   <si>
-    <t>96,8%</t>
+    <t>76,09%</t>
   </si>
   <si>
     <t>65,83%</t>
@@ -444,7 +438,7 @@
     <t>78,42%</t>
   </si>
   <si>
-    <t>3,2%</t>
+    <t>23,91%</t>
   </si>
   <si>
     <t>50,02%</t>
@@ -465,7 +459,7 @@
     <t>64,05%</t>
   </si>
   <si>
-    <t>17,77%</t>
+    <t>17,65%</t>
   </si>
   <si>
     <t>42,56%</t>
@@ -474,121 +468,121 @@
     <t>35,95%</t>
   </si>
   <si>
-    <t>82,23%</t>
+    <t>82,35%</t>
   </si>
   <si>
     <t>29,81%</t>
   </si>
   <si>
-    <t>66,67%</t>
+    <t>66,62%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>51,76%</t>
+    <t>50,21%</t>
   </si>
   <si>
     <t>70,19%</t>
   </si>
   <si>
-    <t>33,33%</t>
+    <t>33,38%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>48,24%</t>
+    <t>49,79%</t>
   </si>
   <si>
     <t>42,48%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
   </si>
   <si>
     <t>57,52%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895CAE33-EC00-43AD-B5AB-67041410E1F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D03389-8D46-4663-B621-D77AA387399C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2358,10 +2352,10 @@
         <v>99</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M28" s="7">
         <v>29</v>
@@ -2370,13 +2364,13 @@
         <v>31902</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2385,13 @@
         <v>26832</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -2406,13 +2400,13 @@
         <v>21817</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -2421,13 +2415,13 @@
         <v>48649</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2477,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2507,7 +2501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9BA3F2-9107-47D6-80B2-A7A1EEB8E6F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82126210-2EAC-4914-BD8E-6B9827FC8B9C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2524,7 +2518,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2661,7 +2655,7 @@
         <v>2213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>27</v>
@@ -2712,7 +2706,7 @@
         <v>930</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>27</v>
@@ -2786,13 +2780,13 @@
         <v>865</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2801,13 +2795,13 @@
         <v>996</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2816,13 +2810,13 @@
         <v>1861</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,10 +2831,10 @@
         <v>4558</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2852,10 +2846,10 @@
         <v>4152</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2867,10 +2861,10 @@
         <v>8711</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3105,7 +3099,7 @@
         <v>1033</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>27</v>
@@ -3120,13 +3114,13 @@
         <v>1033</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,7 +3150,7 @@
         <v>1991</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>27</v>
@@ -3171,10 +3165,10 @@
         <v>3755</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3260,7 +3254,7 @@
         <v>981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>27</v>
@@ -3275,7 +3269,7 @@
         <v>2047</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>27</v>
@@ -3311,7 +3305,7 @@
         <v>981</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>27</v>
@@ -3326,7 +3320,7 @@
         <v>981</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>27</v>
@@ -3415,7 +3409,7 @@
         <v>2519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>27</v>
@@ -3430,10 +3424,10 @@
         <v>3326</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>19</v>
@@ -3466,7 +3460,7 @@
         <v>1866</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>27</v>
@@ -3481,13 +3475,13 @@
         <v>1866</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3564,13 @@
         <v>2202</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3585,13 +3579,13 @@
         <v>2202</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,10 +3615,10 @@
         <v>5184</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -3636,10 +3630,10 @@
         <v>9308</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -3725,13 +3719,13 @@
         <v>3490</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3740,13 +3734,13 @@
         <v>3490</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3770,13 @@
         <v>4727</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3791,13 +3785,13 @@
         <v>5861</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3859,13 @@
         <v>2737</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -3880,13 +3874,13 @@
         <v>13434</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M28" s="7">
         <v>15</v>
@@ -3895,13 +3889,13 @@
         <v>16171</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3910,13 @@
         <v>12512</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -3931,13 +3925,13 @@
         <v>20832</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -3946,13 +3940,13 @@
         <v>33344</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,7 +4002,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
